--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,324 +32,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="106">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_input_valid_0</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscCompInhibIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_input_valid_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vexp1_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscCompInhibIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -440,13 +446,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -482,15 +492,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,46 +535,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -572,21 +582,29 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -601,35 +619,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -646,7 +664,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -663,7 +681,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -680,7 +698,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -697,7 +715,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -714,7 +732,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -732,7 +750,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -747,32 +765,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -786,7 +804,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -800,7 +818,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -814,7 +832,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -828,7 +846,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -842,7 +860,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -856,7 +874,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -870,7 +888,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -884,7 +902,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -898,7 +916,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -912,7 +930,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -926,7 +944,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -940,7 +958,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -955,7 +973,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -970,32 +988,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1009,7 +1027,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1023,7 +1041,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1037,7 +1055,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1051,7 +1069,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1065,7 +1083,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1079,7 +1097,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1093,7 +1111,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1107,7 +1125,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1121,7 +1139,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1135,7 +1153,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1149,7 +1167,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1163,7 +1181,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1177,7 +1195,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1191,7 +1209,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1205,7 +1223,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1219,7 +1237,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1233,7 +1251,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1247,7 +1265,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1261,7 +1279,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1276,7 +1294,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1291,74 +1309,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1369,19 +1387,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1392,22 +1410,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1418,16 +1436,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1438,19 +1456,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1461,22 +1479,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1487,10 +1505,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1501,10 +1519,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1515,10 +1533,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1529,10 +1547,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1543,10 +1561,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1557,10 +1575,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1571,10 +1589,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1586,7 +1604,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1601,83 +1619,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1742,7 +1760,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1807,7 +1825,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1872,7 +1890,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1937,7 +1955,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2002,7 +2020,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2067,7 +2085,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2132,7 +2150,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2197,7 +2215,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2262,7 +2280,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2327,7 +2345,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2392,7 +2410,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2457,7 +2475,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2523,7 +2541,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2538,41 +2556,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2589,10 +2607,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2609,10 +2627,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2629,10 +2647,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2649,10 +2667,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2669,10 +2687,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2689,10 +2707,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2709,10 +2727,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2729,10 +2747,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2749,10 +2767,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2769,10 +2787,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2789,10 +2807,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2809,10 +2827,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2829,10 +2847,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2849,10 +2867,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2869,10 +2887,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2889,10 +2907,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2909,10 +2927,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2929,10 +2947,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2949,10 +2967,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2970,7 +2988,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2985,38 +3003,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3027,10 +3045,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3041,10 +3059,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3055,10 +3073,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3069,10 +3087,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3083,10 +3101,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3097,10 +3115,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3111,10 +3129,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3125,10 +3143,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3139,10 +3157,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3153,10 +3171,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3167,10 +3185,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3181,10 +3199,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3196,7 +3214,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3211,89 +3229,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3308,124 +3326,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3440,124 +3458,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3572,29 +3590,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3605,7 +3623,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3616,7 +3634,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3627,7 +3645,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3638,7 +3656,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3649,7 +3667,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3660,7 +3678,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3671,7 +3689,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3682,7 +3700,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3693,7 +3711,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3704,7 +3722,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3715,7 +3733,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3726,7 +3744,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3738,7 +3756,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3753,29 +3771,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3786,7 +3804,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3797,7 +3815,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3808,7 +3826,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3819,7 +3837,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3830,7 +3848,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3841,7 +3859,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3852,7 +3870,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3863,7 +3881,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3874,7 +3892,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3885,7 +3903,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3896,7 +3914,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3907,7 +3925,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3918,7 +3936,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3929,7 +3947,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3940,7 +3958,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3951,7 +3969,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3962,7 +3980,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3973,7 +3991,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3984,7 +4002,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3996,7 +4014,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_input_valid_0</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -73,18 +73,9 @@
     <t xml:space="preserve">Number of particles</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -199,12 +190,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -212,9 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -492,15 +474,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,24 +494,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -571,33 +554,15 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -620,7 +585,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A5:B5 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -630,24 +595,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -664,7 +629,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -681,7 +646,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -698,7 +663,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -715,7 +680,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -732,7 +697,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -766,7 +731,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -776,21 +741,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -804,7 +769,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -818,7 +783,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -832,7 +797,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -846,7 +811,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -860,7 +825,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -874,7 +839,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -888,7 +853,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -902,7 +867,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -916,7 +881,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -930,7 +895,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -944,7 +909,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -958,7 +923,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -989,7 +954,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -999,21 +964,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1027,7 +992,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1041,7 +1006,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1055,7 +1020,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1069,7 +1034,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1083,7 +1048,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1097,7 +1062,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1111,7 +1076,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1125,7 +1090,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1139,7 +1104,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1153,7 +1118,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1167,7 +1132,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1181,7 +1146,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1195,7 +1160,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1209,7 +1174,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1223,7 +1188,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1237,7 +1202,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1251,7 +1216,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1265,7 +1230,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1279,7 +1244,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1310,13 +1275,13 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A5:B5 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.1"/>
@@ -1326,57 +1291,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1387,19 +1352,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1410,22 +1375,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1436,16 +1401,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1456,19 +1421,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1479,22 +1444,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1505,10 +1470,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1519,10 +1484,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1533,10 +1498,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1547,10 +1512,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1561,10 +1526,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1575,10 +1540,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1589,10 +1554,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1620,7 +1585,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1630,72 +1595,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1760,7 +1725,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1825,7 +1790,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1890,7 +1855,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1955,7 +1920,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2020,7 +1985,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2085,7 +2050,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2150,7 +2115,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2215,7 +2180,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2280,7 +2245,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2345,7 +2310,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2410,7 +2375,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2475,7 +2440,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2554,434 +2519,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="Q11" activeCellId="1" sqref="B3 Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3001,214 +2841,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3230,7 +3029,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3240,72 +3039,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3126,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3337,107 +3136,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3459,7 +3258,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3469,107 +3268,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3591,7 +3390,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3601,18 +3400,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3623,7 +3422,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3634,7 +3433,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3645,7 +3444,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3656,7 +3455,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3667,7 +3466,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3678,7 +3477,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3689,7 +3488,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3700,7 +3499,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3711,7 +3510,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3722,7 +3521,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3733,7 +3532,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3744,7 +3543,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3772,7 +3571,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3782,18 +3581,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3804,7 +3603,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3815,7 +3614,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3826,7 +3625,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3837,7 +3636,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3848,7 +3647,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3859,7 +3658,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3870,7 +3669,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3881,7 +3680,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3892,7 +3691,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3903,7 +3702,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3914,7 +3713,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3925,7 +3724,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3936,7 +3735,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3947,7 +3746,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3958,7 +3757,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3969,7 +3768,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3980,7 +3779,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3991,7 +3790,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4002,7 +3801,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,7 +585,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B3 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -954,7 +954,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="B3 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1585,7 +1585,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2522,7 +2522,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q11" activeCellId="1" sqref="B3 Q11"/>
+      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2844,7 +2844,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3029,7 +3029,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3126,7 +3126,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3258,7 +3258,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3390,7 +3390,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3571,7 +3571,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -441,12 +438,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -476,7 +473,7 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -595,19 +592,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,16 +738,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,16 +961,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,40 +1288,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,13 +1329,13 @@
         <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>21</v>
@@ -1355,16 +1352,16 @@
         <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1378,16 +1375,16 @@
         <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>24</v>
@@ -1404,13 +1401,13 @@
         <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1424,16 +1421,16 @@
         <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1447,16 +1444,16 @@
         <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>24</v>
@@ -1473,7 +1470,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1487,7 +1484,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1501,7 +1498,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1515,7 +1512,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1529,7 +1526,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1543,7 +1540,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1557,7 +1554,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2519,16 +2516,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,21 +2538,15 @@
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2563,13 +2554,10 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2577,13 +2565,10 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2591,13 +2576,10 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2605,111 +2587,87 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2717,13 +2675,10 @@
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2731,13 +2686,10 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2745,13 +2697,10 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2759,13 +2708,10 @@
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2773,13 +2719,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2787,13 +2730,10 @@
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2801,13 +2741,10 @@
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2815,13 +2752,10 @@
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2858,20 +2792,20 @@
         <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2882,7 +2816,7 @@
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2893,7 +2827,7 @@
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2904,7 +2838,7 @@
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2915,7 +2849,7 @@
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2926,7 +2860,7 @@
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2937,7 +2871,7 @@
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2948,7 +2882,7 @@
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2959,7 +2893,7 @@
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2970,7 +2904,7 @@
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2981,7 +2915,7 @@
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2992,7 +2926,7 @@
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -3003,7 +2937,7 @@
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3136,7 +3070,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3202,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,13 +3334,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,13 +3515,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -579,152 +578,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -943,7 +796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1264,7 +1117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2518,7 +2371,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2960,9 +2813,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2973,72 +2826,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3189,138 +3077,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3497,7 +3253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3753,4 +3509,150 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.10350536706976</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.12397436954052E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.18755368558865E-009</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3.33787220043099E-011</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2.00430304742416E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6.60284204552005E-011</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_input_valid_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -424,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +444,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -470,10 +483,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,43 +535,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -581,7 +610,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -591,21 +620,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -619,7 +648,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -633,7 +662,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -647,7 +676,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -661,7 +690,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -675,7 +704,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -689,7 +718,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -703,7 +732,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -717,7 +746,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -731,7 +760,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -745,7 +774,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -759,7 +788,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -773,7 +802,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -804,7 +833,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,21 +843,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -842,7 +871,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -856,7 +885,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -870,7 +899,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -884,7 +913,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -898,7 +927,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -912,7 +941,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -926,7 +955,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -940,7 +969,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -954,7 +983,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -968,7 +997,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -982,7 +1011,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -996,7 +1025,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1010,7 +1039,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1024,7 +1053,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1038,7 +1067,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1052,7 +1081,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1066,7 +1095,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1080,7 +1109,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1094,7 +1123,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1125,7 +1154,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="A6:B7 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1141,57 +1170,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1202,19 +1231,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1225,22 +1254,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1251,16 +1280,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1271,19 +1300,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1294,22 +1323,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1320,10 +1349,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1334,10 +1363,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1348,10 +1377,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1362,10 +1391,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1376,10 +1405,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1390,10 +1419,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1404,10 +1433,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1435,7 +1464,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1445,72 +1474,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1575,7 +1604,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1640,7 +1669,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1705,7 +1734,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1770,7 +1799,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1835,7 +1864,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1900,7 +1929,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1965,7 +1994,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2030,7 +2059,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2095,7 +2124,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2160,7 +2189,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2225,7 +2254,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2290,7 +2319,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2372,7 +2401,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2383,21 +2412,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2405,10 +2434,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2416,10 +2445,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2427,10 +2456,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2438,10 +2467,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2449,10 +2478,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2460,10 +2489,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2471,10 +2500,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2482,10 +2511,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2493,10 +2522,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2504,10 +2533,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2515,10 +2544,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2526,10 +2555,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2537,10 +2566,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2548,10 +2577,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2559,10 +2588,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2570,10 +2599,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2581,10 +2610,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2592,10 +2621,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2603,10 +2632,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2631,7 +2660,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2642,24 +2671,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2667,10 +2696,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2678,10 +2707,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2689,10 +2718,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2700,10 +2729,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2711,10 +2740,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2722,10 +2751,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2733,10 +2762,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2744,10 +2773,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2755,10 +2784,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2766,10 +2795,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2777,10 +2806,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2788,10 +2817,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2815,8 +2844,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2826,107 +2855,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2948,7 +2977,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2958,107 +2987,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +3109,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3090,18 +3119,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3112,7 +3141,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3123,7 +3152,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3134,7 +3163,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3145,7 +3174,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3156,7 +3185,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3167,7 +3196,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3178,7 +3207,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3189,7 +3218,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3200,7 +3229,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3211,7 +3240,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3222,7 +3251,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3233,7 +3262,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3261,7 +3290,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3271,18 +3300,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3293,7 +3322,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3304,7 +3333,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3315,7 +3344,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3326,7 +3355,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3337,7 +3366,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3348,7 +3377,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3359,7 +3388,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3370,7 +3399,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3381,7 +3410,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3392,7 +3421,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3403,7 +3432,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3414,7 +3443,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3425,7 +3454,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3436,7 +3465,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3447,7 +3476,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3458,7 +3487,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3469,7 +3498,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3480,7 +3509,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3491,7 +3520,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3519,7 +3548,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A6:B7 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3529,24 +3558,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3563,7 +3592,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3580,7 +3609,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3597,7 +3626,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3614,7 +3643,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3631,7 +3660,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
